--- a/biology/Histoire de la zoologie et de la botanique/Colloques_des_simples_et_des_drogues_de_l'Inde/Colloques_des_simples_et_des_drogues_de_l'Inde.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Colloques_des_simples_et_des_drogues_de_l'Inde/Colloques_des_simples_et_des_drogues_de_l'Inde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Colloques_des_simples_et_des_drogues_de_l%27Inde</t>
+          <t>Colloques_des_simples_et_des_drogues_de_l'Inde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Colloques des simples et des drogues de l'Inde (en portugais : Colóquios dos simples e drogas da India) est un traité publié par Garcia de Orta en 1563 à Goa, alors capitale de la vice-royauté du Portugal en Inde. Il est le résultat de trente années d’études et d’observations de la part de l'auteur sur les plantes médicinales (les « simples ») de la région et sur leurs usages[1].
+Les Colloques des simples et des drogues de l'Inde (en portugais : Colóquios dos simples e drogas da India) est un traité publié par Garcia de Orta en 1563 à Goa, alors capitale de la vice-royauté du Portugal en Inde. Il est le résultat de trente années d’études et d’observations de la part de l'auteur sur les plantes médicinales (les « simples ») de la région et sur leurs usages.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Colloques_des_simples_et_des_drogues_de_l%27Inde</t>
+          <t>Colloques_des_simples_et_des_drogues_de_l'Inde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Colloques sont organisés comme une série de dialogues entre Da Orta et un médecin imaginaire nommé Ruano, qui souhaite en apprendre davantage sur les trésors des Indes. En 58 chapitres, l'auteur énumère toutes sortes de plantes médicinales, d'épices et de pierres, en donnant pour chacune son étymologie et ses applications.
-Liste des colloques et des drogues traitées[2]
+Liste des colloques et des drogues traitées
 Em que se introduze ho doctor Ruano (introduction)
 Do aloes (aloès)
 Do ambre (ambre gris)
@@ -583,7 +597,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Colloques_des_simples_et_des_drogues_de_l%27Inde</t>
+          <t>Colloques_des_simples_et_des_drogues_de_l'Inde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -603,10 +617,49 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Texte original
-(pt) Garcia de Orta, Coloquios dos simples, e drogas he cousas mediçinais da India, Goa, Ioannes de Endem, 1563, 247 p. (lire en ligne).
-Traductions
-(en) Garcia de Orta (trad. Clements Markham), Colloquies on the Simples and Drugs of India, Londres, H. Sotheran and Co., 1913, 508 p. (lire en ligne).
+          <t>Texte original</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(pt) Garcia de Orta, Coloquios dos simples, e drogas he cousas mediçinais da India, Goa, Ioannes de Endem, 1563, 247 p. (lire en ligne).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Colloques_des_simples_et_des_drogues_de_l'Inde</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Colloques_des_simples_et_des_drogues_de_l%27Inde</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Éditions</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Traductions</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) Garcia de Orta (trad. Clements Markham), Colloquies on the Simples and Drugs of India, Londres, H. Sotheran and Co., 1913, 508 p. (lire en ligne).
 Garcia de Orta (trad. Sylvie Messinger-Ramos, Françoise Marchand-Sauvagnargues et Antonio Ramos), Colloques des simples et des drogues de l'Inde, Actes Sud, 2004, 736 p. (ISBN 2-7427-4770-2 et 978-2-7427-4770-2, OCLC 418125852, lire en ligne).</t>
         </is>
       </c>
